--- a/ProjectTrackingGroup6ver2.xlsx
+++ b/ProjectTrackingGroup6ver2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Workspace\SWP391\2_SWP391\2_SWP391\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Gas_Store-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681F564-3E26-4741-B9A0-7A862092ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54804F0F-7F84-4DE5-974E-90832E991205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Iter4" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Iter2!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Iter3!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Iter4!$A$5:$D$7</definedName>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -599,9 +599,6 @@
     <t xml:space="preserve">Bình An </t>
   </si>
   <si>
-    <t xml:space="preserve">Doing </t>
-  </si>
-  <si>
     <t>Encrypt password</t>
   </si>
   <si>
@@ -609,6 +606,21 @@
   </si>
   <si>
     <t>Tường Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Staff site</t>
+  </si>
+  <si>
+    <t>the page that show the staff interface</t>
+  </si>
+  <si>
+    <t>Login Facebook</t>
+  </si>
+  <si>
+    <t>the function allow user access page by facebook account</t>
   </si>
 </sst>
 </file>
@@ -1491,11 +1503,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1635,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>19</v>
@@ -1821,14 +1833,14 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -1838,46 +1850,81 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>ROW()-5</f>
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H19" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ProjectTrackingGroup6ver2.xlsx
+++ b/ProjectTrackingGroup6ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Gas_Store-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54804F0F-7F84-4DE5-974E-90832E991205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF162DD-AD4B-4FA4-8003-6BFB9AE5CB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>the function allow user access page by facebook account</t>
+  </si>
+  <si>
+    <t>Vũ Anh</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1509,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1707,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>19</v>
@@ -1776,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>

--- a/ProjectTrackingGroup6ver2.xlsx
+++ b/ProjectTrackingGroup6ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Gas_Store-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF162DD-AD4B-4FA4-8003-6BFB9AE5CB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47354F-EEB7-4628-B0F8-47840709E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -624,6 +624,48 @@
   </si>
   <si>
     <t>Vũ Anh</t>
+  </si>
+  <si>
+    <t>the screen that show the news's information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">common </t>
+  </si>
+  <si>
+    <t>The main page of the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Anh </t>
+  </si>
+  <si>
+    <t>User profile</t>
+  </si>
+  <si>
+    <t>the screen that displays the profile, change password, update profile and delete profile</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the screen that allows user purchase the product </t>
+  </si>
+  <si>
+    <t>Manage Order</t>
+  </si>
+  <si>
+    <t>Manage Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Tracking </t>
   </si>
 </sst>
 </file>
@@ -1506,11 +1548,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1922,12 +1964,36 @@
       <c r="H20" s="13"/>
       <c r="I20" s="4"/>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f>ROW()-5</f>
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F21" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H21" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1941,11 +2007,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2018,26 +2084,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -2046,34 +2108,241 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" ref="A8:A13" si="0">ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f>ROW()-5</f>
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" ref="A14:A15" si="1">ROW()-5</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H15" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F15" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ProjectTrackingGroup6ver2.xlsx
+++ b/ProjectTrackingGroup6ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Gas_Store-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47354F-EEB7-4628-B0F8-47840709E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FF72C-AFDC-4C6E-9216-A3B3900FA8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Iter4" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Iter2!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Iter3!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Iter4!$A$5:$D$7</definedName>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -666,6 +666,18 @@
   </si>
   <si>
     <t xml:space="preserve">Order Tracking </t>
+  </si>
+  <si>
+    <t>Admin Profile</t>
+  </si>
+  <si>
+    <t>Staff Profile</t>
+  </si>
+  <si>
+    <t>Admin Notification</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
   </si>
 </sst>
 </file>
@@ -1548,11 +1560,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1645,6 +1657,7 @@
     </row>
     <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <f t="shared" ref="A7:A20" si="0">ROW()-5</f>
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1668,6 +1681,7 @@
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1689,24 +1703,25 @@
       <c r="H8" s="12"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
+      <c r="D9" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1714,19 +1729,20 @@
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>57</v>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
@@ -1737,22 +1753,23 @@
     </row>
     <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1760,22 +1777,23 @@
     </row>
     <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1783,42 +1801,44 @@
     </row>
     <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>53</v>
@@ -1829,63 +1849,66 @@
     </row>
     <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -1894,24 +1917,25 @@
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1919,43 +1943,44 @@
     </row>
     <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>83</v>
@@ -1964,36 +1989,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f>ROW()-5</f>
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F21" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H21" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2010,8 +2011,8 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="A1:I15"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2129,7 @@
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" ref="A8:A13" si="0">ROW()-5</f>
+        <f t="shared" ref="A8:A12" si="0">ROW()-5</f>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2272,7 +2273,7 @@
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" ref="A14:A15" si="1">ROW()-5</f>
+        <f t="shared" ref="A14:A19" si="1">ROW()-5</f>
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2300,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>91</v>
@@ -2309,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>53</v>
@@ -2318,31 +2319,115 @@
       <c r="H15" s="12"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H15" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H19" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F15" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ProjectTrackingGroup6ver2.xlsx
+++ b/ProjectTrackingGroup6ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Gas_Store-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FF72C-AFDC-4C6E-9216-A3B3900FA8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B8276B-2C61-4E9D-9E6B-1837B7ED8CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>Forget Password</t>
+  </si>
+  <si>
+    <t>Change User Password</t>
   </si>
 </sst>
 </file>
@@ -2011,8 +2014,8 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" ref="A14:A19" si="1">ROW()-5</f>
+        <f t="shared" ref="A14:A20" si="1">ROW()-5</f>
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2415,8 +2418,29 @@
       <c r="H19" s="12"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -2424,10 +2448,10 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H19" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H20" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
